--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H2">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I2">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J2">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>1696.566403999193</v>
+        <v>40.54375303732766</v>
       </c>
       <c r="R2">
-        <v>15269.09763599274</v>
+        <v>364.8937773359489</v>
       </c>
       <c r="S2">
-        <v>0.3307961905277986</v>
+        <v>0.006825883562269633</v>
       </c>
       <c r="T2">
-        <v>0.3307961905277984</v>
+        <v>0.006825883562269633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H3">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I3">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J3">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>608.0068410177466</v>
+        <v>15.34364533320467</v>
       </c>
       <c r="R3">
-        <v>5472.06156915972</v>
+        <v>138.092807998842</v>
       </c>
       <c r="S3">
-        <v>0.1185490567002924</v>
+        <v>0.002583232400039308</v>
       </c>
       <c r="T3">
-        <v>0.1185490567002923</v>
+        <v>0.002583232400039308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H4">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I4">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J4">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>878.1892299137131</v>
+        <v>18.55403780915123</v>
       </c>
       <c r="R4">
-        <v>7903.703069223419</v>
+        <v>166.986340282361</v>
       </c>
       <c r="S4">
-        <v>0.1712291668237794</v>
+        <v>0.003123729112561758</v>
       </c>
       <c r="T4">
-        <v>0.1712291668237793</v>
+        <v>0.003123729112561758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H5">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I5">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J5">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>278.9547680227955</v>
+        <v>5.99965656071011</v>
       </c>
       <c r="R5">
-        <v>2510.59291220516</v>
+        <v>53.99690904639099</v>
       </c>
       <c r="S5">
-        <v>0.05439054691522137</v>
+        <v>0.001010092900361491</v>
       </c>
       <c r="T5">
-        <v>0.05439054691522135</v>
+        <v>0.001010092900361491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H6">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I6">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J6">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>341.4965602010533</v>
+        <v>7.989124934962222</v>
       </c>
       <c r="R6">
-        <v>3073.46904180948</v>
+        <v>71.90212441465999</v>
       </c>
       <c r="S6">
-        <v>0.06658493350249627</v>
+        <v>0.001345036719227004</v>
       </c>
       <c r="T6">
-        <v>0.06658493350249622</v>
+        <v>0.001345036719227004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>17.41499333333333</v>
+        <v>0.4394843333333333</v>
       </c>
       <c r="H7">
-        <v>52.24498</v>
+        <v>1.318453</v>
       </c>
       <c r="I7">
-        <v>0.9584726630906668</v>
+        <v>0.0239109511018218</v>
       </c>
       <c r="J7">
-        <v>0.9584726630906667</v>
+        <v>0.02391095110182181</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>1112.53966050158</v>
+        <v>53.59384228934978</v>
       </c>
       <c r="R7">
-        <v>10012.85694451422</v>
+        <v>482.3445806041479</v>
       </c>
       <c r="S7">
-        <v>0.216922768621079</v>
+        <v>0.009022976407362613</v>
       </c>
       <c r="T7">
-        <v>0.2169227686210789</v>
+        <v>0.009022976407362613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H8">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I8">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J8">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>15.92568093843467</v>
+        <v>1606.585571544927</v>
       </c>
       <c r="R8">
-        <v>143.331128445912</v>
+        <v>14459.27014390434</v>
       </c>
       <c r="S8">
-        <v>0.003105186200538407</v>
+        <v>0.2704822623128059</v>
       </c>
       <c r="T8">
-        <v>0.003105186200538406</v>
+        <v>0.2704822623128059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H9">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I9">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J9">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
-        <v>5.707364554437333</v>
+        <v>608.0068410177468</v>
       </c>
       <c r="R9">
-        <v>51.366280989936</v>
+        <v>5472.061569159721</v>
       </c>
       <c r="S9">
-        <v>0.001112820841029783</v>
+        <v>0.1023630914984498</v>
       </c>
       <c r="T9">
-        <v>0.001112820841029782</v>
+        <v>0.1023630914984498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H10">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I10">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J10">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>8.243568566610666</v>
+        <v>735.2217593333625</v>
       </c>
       <c r="R10">
-        <v>74.19211709949599</v>
+        <v>6616.995834000261</v>
       </c>
       <c r="S10">
-        <v>0.001607329410603377</v>
+        <v>0.1237807984139039</v>
       </c>
       <c r="T10">
-        <v>0.001607329410603376</v>
+        <v>0.1237807984139039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H11">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I11">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J11">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>2.618550397623111</v>
+        <v>237.7422153244511</v>
       </c>
       <c r="R11">
-        <v>23.566953578608</v>
+        <v>2139.67993792006</v>
       </c>
       <c r="S11">
-        <v>0.0005105644519406558</v>
+        <v>0.04002591171435622</v>
       </c>
       <c r="T11">
-        <v>0.0005105644519406556</v>
+        <v>0.04002591171435621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H12">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I12">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J12">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>3.205630647002667</v>
+        <v>316.5768309106223</v>
       </c>
       <c r="R12">
-        <v>28.850675823024</v>
+        <v>2849.1914781956</v>
       </c>
       <c r="S12">
-        <v>0.0006250332458358339</v>
+        <v>0.05329838568024834</v>
       </c>
       <c r="T12">
-        <v>0.0006250332458358336</v>
+        <v>0.05329838568024833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1634746666666667</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H13">
-        <v>0.490424</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I13">
-        <v>0.008997189726622102</v>
+        <v>0.947494648725179</v>
       </c>
       <c r="J13">
-        <v>0.0089971897266221</v>
+        <v>0.9474946487251791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>10.443417730504</v>
+        <v>2123.708026399298</v>
       </c>
       <c r="R13">
-        <v>93.990759574536</v>
+        <v>19113.37223759368</v>
       </c>
       <c r="S13">
-        <v>0.002036255576674047</v>
+        <v>0.3575441991054149</v>
       </c>
       <c r="T13">
-        <v>0.002036255576674046</v>
+        <v>0.357544199105415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H14">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I14">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J14">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>49.76262215273567</v>
+        <v>15.08103022222133</v>
       </c>
       <c r="R14">
-        <v>447.8635993746211</v>
+        <v>135.729271999992</v>
       </c>
       <c r="S14">
-        <v>0.009702706478211641</v>
+        <v>0.002539018926076639</v>
       </c>
       <c r="T14">
-        <v>0.009702706478211635</v>
+        <v>0.002539018926076639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H15">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I15">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J15">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>17.83367548981533</v>
+        <v>5.707364554437334</v>
       </c>
       <c r="R15">
-        <v>160.503079408338</v>
+        <v>51.36628098993601</v>
       </c>
       <c r="S15">
-        <v>0.003477206610500988</v>
+        <v>0.0009608830702018786</v>
       </c>
       <c r="T15">
-        <v>0.003477206610500987</v>
+        <v>0.0009608830702018786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H16">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I16">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J16">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>25.75849593849367</v>
+        <v>6.901531900276447</v>
       </c>
       <c r="R16">
-        <v>231.826463446443</v>
+        <v>62.11378710248801</v>
       </c>
       <c r="S16">
-        <v>0.005022386574491858</v>
+        <v>0.001161931237821134</v>
       </c>
       <c r="T16">
-        <v>0.005022386574491855</v>
+        <v>0.001161931237821134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H17">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I17">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J17">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>8.182126373657111</v>
+        <v>2.231687871414222</v>
       </c>
       <c r="R17">
-        <v>73.63913736291401</v>
+        <v>20.085190842728</v>
       </c>
       <c r="S17">
-        <v>0.001595349423661044</v>
+        <v>0.0003757235188261424</v>
       </c>
       <c r="T17">
-        <v>0.001595349423661044</v>
+        <v>0.0003757235188261423</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H18">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I18">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J18">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>10.01656301320467</v>
+        <v>2.971708970364445</v>
       </c>
       <c r="R18">
-        <v>90.14906711884203</v>
+        <v>26.74538073328</v>
       </c>
       <c r="S18">
-        <v>0.001953027526148825</v>
+        <v>0.0005003123266359774</v>
       </c>
       <c r="T18">
-        <v>0.001953027526148824</v>
+        <v>0.0005003123266359774</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5108056666666667</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H19">
-        <v>1.532417</v>
+        <v>0.490424</v>
       </c>
       <c r="I19">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="J19">
-        <v>0.02811331926924674</v>
+        <v>0.008894139027451004</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>32.63231584980701</v>
+        <v>19.93526239533156</v>
       </c>
       <c r="R19">
-        <v>293.690842648263</v>
+        <v>179.417361557984</v>
       </c>
       <c r="S19">
-        <v>0.00636264265623239</v>
+        <v>0.003356269947889233</v>
       </c>
       <c r="T19">
-        <v>0.006362642656232386</v>
+        <v>0.003356269947889233</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H20">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I20">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J20">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>7.818107014201668</v>
+        <v>33.40404650800834</v>
       </c>
       <c r="R20">
-        <v>70.36296312781501</v>
+        <v>300.636418572075</v>
       </c>
       <c r="S20">
-        <v>0.001524372999100012</v>
+        <v>0.005623853612229217</v>
       </c>
       <c r="T20">
-        <v>0.001524372999100011</v>
+        <v>0.005623853612229216</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H21">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I21">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J21">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>2.801813437563334</v>
+        <v>12.64164769948333</v>
       </c>
       <c r="R21">
-        <v>25.21632093807001</v>
+        <v>113.77482929535</v>
       </c>
       <c r="S21">
-        <v>0.000546297044153886</v>
+        <v>0.002128328256944085</v>
       </c>
       <c r="T21">
-        <v>0.0005462970441538858</v>
+        <v>0.002128328256944085</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H22">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I22">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J22">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>4.046866283571667</v>
+        <v>15.28669389135278</v>
       </c>
       <c r="R22">
-        <v>36.421796552145</v>
+        <v>137.580245022175</v>
       </c>
       <c r="S22">
-        <v>0.0007890572081501231</v>
+        <v>0.002573644143361973</v>
       </c>
       <c r="T22">
-        <v>0.0007890572081501228</v>
+        <v>0.002573644143361973</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H23">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I23">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J23">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>1.285477670301111</v>
+        <v>4.943124199713889</v>
       </c>
       <c r="R23">
-        <v>11.56929903271</v>
+        <v>44.48811779742501</v>
       </c>
       <c r="S23">
-        <v>0.0002506421884470838</v>
+        <v>0.0008322167459440562</v>
       </c>
       <c r="T23">
-        <v>0.0002506421884470837</v>
+        <v>0.0008322167459440561</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H24">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I24">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J24">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>1.573682377736667</v>
+        <v>6.582249567277779</v>
       </c>
       <c r="R24">
-        <v>14.16314139963</v>
+        <v>59.24024610550001</v>
       </c>
       <c r="S24">
-        <v>0.0003068362867665657</v>
+        <v>0.00110817735799328</v>
       </c>
       <c r="T24">
-        <v>0.0003068362867665655</v>
+        <v>0.00110817735799328</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08025166666666668</v>
+        <v>0.3620916666666667</v>
       </c>
       <c r="H25">
-        <v>0.240755</v>
+        <v>1.086275</v>
       </c>
       <c r="I25">
-        <v>0.004416827913464481</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="J25">
-        <v>0.00441682791346448</v>
+        <v>0.01970026114554822</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>5.126798516605001</v>
+        <v>44.15603061532223</v>
       </c>
       <c r="R25">
-        <v>46.141186649445</v>
+        <v>397.4042755379</v>
       </c>
       <c r="S25">
-        <v>0.0009996221868468107</v>
+        <v>0.007434041029075609</v>
       </c>
       <c r="T25">
-        <v>0.0009996221868468101</v>
+        <v>0.007434041029075609</v>
       </c>
     </row>
   </sheetData>
